--- a/data/서울특별시 광진구_전통시장 주변 주차 최신화_20221125/1A_광진구전통시장_10_노룬산시장_221212.xlsx
+++ b/data/서울특별시 광진구_전통시장 주변 주차 최신화_20221125/1A_광진구전통시장_10_노룬산시장_221212.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\업무\1.공공데이터기업매칭지원사업\04.D137_서울 광진구\12.제출\00D포털등록용_품질제출본_51534건_수정완료본_221224\1.전통시장주변주차최신화D_8380(8403)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shjo\Desktop\gwangjin_data\전처리\Gwangjin_project\data\서울특별시 광진구_전통시장 주변 주차 최신화_20221125\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F1D67-95DD-4D7A-AC43-93380B4D7430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E210B7FD-31C3-4A88-A51D-53762968D6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3705" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1A-10-407건" sheetId="1" r:id="rId1"/>
@@ -8248,24 +8248,24 @@
   <dimension ref="A1:AZ408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AZ1" sqref="A1:AZ1"/>
+      <selection pane="bottomRight" activeCell="W259" sqref="W259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="7" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="49" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="36" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="49" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="19.2">
+    <row r="1" spans="1:52" ht="17.25">
       <c r="A1" t="s">
         <v>2515</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="17.399999999999999">
+    <row r="2" spans="1:52" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>656</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="17.399999999999999">
+    <row r="3" spans="1:52" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>670</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="17.399999999999999">
+    <row r="4" spans="1:52" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>700</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="17.399999999999999">
+    <row r="5" spans="1:52" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>663</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="17.399999999999999">
+    <row r="6" spans="1:52" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>678</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="17.399999999999999">
+    <row r="7" spans="1:52" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>711</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="17.399999999999999">
+    <row r="8" spans="1:52" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>697</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="17.399999999999999">
+    <row r="9" spans="1:52" ht="16.5">
       <c r="A9" s="1" t="s">
         <v>672</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="17.399999999999999">
+    <row r="10" spans="1:52" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>680</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="17.399999999999999">
+    <row r="11" spans="1:52" ht="16.5">
       <c r="A11" s="1" t="s">
         <v>667</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="17.399999999999999">
+    <row r="12" spans="1:52" ht="16.5">
       <c r="A12" s="1" t="s">
         <v>671</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="17.399999999999999">
+    <row r="13" spans="1:52" ht="16.5">
       <c r="A13" s="1" t="s">
         <v>684</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="17.399999999999999">
+    <row r="14" spans="1:52" ht="16.5">
       <c r="A14" s="1" t="s">
         <v>650</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="17.399999999999999">
+    <row r="15" spans="1:52" ht="16.5">
       <c r="A15" s="1" t="s">
         <v>651</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="17.399999999999999">
+    <row r="16" spans="1:52" ht="16.5">
       <c r="A16" s="1" t="s">
         <v>695</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="17.399999999999999">
+    <row r="17" spans="1:52" ht="16.5">
       <c r="A17" s="1" t="s">
         <v>676</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="17.399999999999999">
+    <row r="18" spans="1:52" ht="16.5">
       <c r="A18" s="1" t="s">
         <v>691</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="17.399999999999999">
+    <row r="19" spans="1:52" ht="16.5">
       <c r="A19" s="1" t="s">
         <v>734</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="17.399999999999999">
+    <row r="20" spans="1:52" ht="16.5">
       <c r="A20" s="1" t="s">
         <v>657</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="17.399999999999999">
+    <row r="21" spans="1:52" ht="16.5">
       <c r="A21" s="1" t="s">
         <v>714</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="17.399999999999999">
+    <row r="22" spans="1:52" ht="16.5">
       <c r="A22" s="1" t="s">
         <v>666</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="17.399999999999999">
+    <row r="23" spans="1:52" ht="16.5">
       <c r="A23" s="1" t="s">
         <v>647</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="17.399999999999999">
+    <row r="24" spans="1:52" ht="16.5">
       <c r="A24" s="1" t="s">
         <v>687</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="17.399999999999999">
+    <row r="25" spans="1:52" ht="16.5">
       <c r="A25" s="1" t="s">
         <v>664</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="17.399999999999999">
+    <row r="26" spans="1:52" ht="16.5">
       <c r="A26" s="1" t="s">
         <v>660</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="17.399999999999999">
+    <row r="27" spans="1:52" ht="16.5">
       <c r="A27" s="1" t="s">
         <v>645</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="17.399999999999999">
+    <row r="28" spans="1:52" ht="16.5">
       <c r="A28" s="1" t="s">
         <v>685</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="17.399999999999999">
+    <row r="29" spans="1:52" ht="16.5">
       <c r="A29" s="1" t="s">
         <v>704</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="17.399999999999999">
+    <row r="30" spans="1:52" ht="16.5">
       <c r="A30" s="1" t="s">
         <v>727</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="17.399999999999999">
+    <row r="31" spans="1:52" ht="16.5">
       <c r="A31" s="1" t="s">
         <v>693</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="17.399999999999999">
+    <row r="32" spans="1:52" ht="16.5">
       <c r="A32" s="1" t="s">
         <v>726</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="33" spans="1:52" ht="17.399999999999999">
+    <row r="33" spans="1:52" ht="16.5">
       <c r="A33" s="1" t="s">
         <v>690</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="34" spans="1:52" ht="17.399999999999999">
+    <row r="34" spans="1:52" ht="16.5">
       <c r="A34" s="1" t="s">
         <v>689</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="17.399999999999999">
+    <row r="35" spans="1:52" ht="16.5">
       <c r="A35" s="1" t="s">
         <v>736</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="17.399999999999999">
+    <row r="36" spans="1:52" ht="16.5">
       <c r="A36" s="1" t="s">
         <v>708</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="37" spans="1:52" ht="17.399999999999999">
+    <row r="37" spans="1:52" ht="16.5">
       <c r="A37" s="1" t="s">
         <v>706</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="38" spans="1:52" ht="17.399999999999999">
+    <row r="38" spans="1:52" ht="16.5">
       <c r="A38" s="1" t="s">
         <v>688</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="39" spans="1:52" ht="17.399999999999999">
+    <row r="39" spans="1:52" ht="16.5">
       <c r="A39" s="1" t="s">
         <v>699</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="40" spans="1:52" ht="17.399999999999999">
+    <row r="40" spans="1:52" ht="16.5">
       <c r="A40" s="1" t="s">
         <v>728</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="41" spans="1:52" ht="17.399999999999999">
+    <row r="41" spans="1:52" ht="16.5">
       <c r="A41" s="1" t="s">
         <v>557</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="42" spans="1:52" ht="17.399999999999999">
+    <row r="42" spans="1:52" ht="16.5">
       <c r="A42" s="1" t="s">
         <v>698</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="43" spans="1:52" ht="17.399999999999999">
+    <row r="43" spans="1:52" ht="16.5">
       <c r="A43" s="1" t="s">
         <v>681</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="44" spans="1:52" ht="17.399999999999999">
+    <row r="44" spans="1:52" ht="16.5">
       <c r="A44" s="1" t="s">
         <v>740</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="45" spans="1:52" ht="17.399999999999999">
+    <row r="45" spans="1:52" ht="16.5">
       <c r="A45" s="1" t="s">
         <v>735</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="46" spans="1:52" ht="17.399999999999999">
+    <row r="46" spans="1:52" ht="16.5">
       <c r="A46" s="1" t="s">
         <v>679</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="47" spans="1:52" ht="17.399999999999999">
+    <row r="47" spans="1:52" ht="16.5">
       <c r="A47" s="1" t="s">
         <v>724</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="48" spans="1:52" ht="17.399999999999999">
+    <row r="48" spans="1:52" ht="16.5">
       <c r="A48" s="1" t="s">
         <v>703</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="49" spans="1:52" ht="17.399999999999999">
+    <row r="49" spans="1:52" ht="16.5">
       <c r="A49" s="1" t="s">
         <v>709</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="50" spans="1:52" ht="17.399999999999999">
+    <row r="50" spans="1:52" ht="16.5">
       <c r="A50" s="1" t="s">
         <v>677</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="51" spans="1:52" ht="17.399999999999999">
+    <row r="51" spans="1:52" ht="16.5">
       <c r="A51" s="1" t="s">
         <v>668</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="52" spans="1:52" ht="17.399999999999999">
+    <row r="52" spans="1:52" ht="16.5">
       <c r="A52" s="1" t="s">
         <v>725</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="53" spans="1:52" ht="17.399999999999999">
+    <row r="53" spans="1:52" ht="16.5">
       <c r="A53" s="1" t="s">
         <v>705</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="54" spans="1:52" ht="17.399999999999999">
+    <row r="54" spans="1:52" ht="16.5">
       <c r="A54" s="1" t="s">
         <v>729</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="55" spans="1:52" ht="17.399999999999999">
+    <row r="55" spans="1:52" ht="16.5">
       <c r="A55" s="1" t="s">
         <v>731</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="56" spans="1:52" ht="17.399999999999999">
+    <row r="56" spans="1:52" ht="16.5">
       <c r="A56" s="1" t="s">
         <v>696</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="57" spans="1:52" ht="17.399999999999999">
+    <row r="57" spans="1:52" ht="16.5">
       <c r="A57" s="1" t="s">
         <v>682</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="58" spans="1:52" ht="17.399999999999999">
+    <row r="58" spans="1:52" ht="16.5">
       <c r="A58" s="1" t="s">
         <v>737</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="59" spans="1:52" ht="17.399999999999999">
+    <row r="59" spans="1:52" ht="16.5">
       <c r="A59" s="1" t="s">
         <v>722</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="60" spans="1:52" ht="17.399999999999999">
+    <row r="60" spans="1:52" ht="16.5">
       <c r="A60" s="1" t="s">
         <v>749</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="61" spans="1:52" ht="17.399999999999999">
+    <row r="61" spans="1:52" ht="16.5">
       <c r="A61" s="1" t="s">
         <v>723</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="62" spans="1:52" ht="17.399999999999999">
+    <row r="62" spans="1:52" ht="16.5">
       <c r="A62" s="1" t="s">
         <v>746</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="63" spans="1:52" ht="17.399999999999999">
+    <row r="63" spans="1:52" ht="16.5">
       <c r="A63" s="1" t="s">
         <v>732</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="64" spans="1:52" ht="17.399999999999999">
+    <row r="64" spans="1:52" ht="16.5">
       <c r="A64" s="1" t="s">
         <v>571</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="65" spans="1:52" ht="17.399999999999999">
+    <row r="65" spans="1:52" ht="16.5">
       <c r="A65" s="1" t="s">
         <v>710</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="66" spans="1:52" ht="17.399999999999999">
+    <row r="66" spans="1:52" ht="16.5">
       <c r="A66" s="1" t="s">
         <v>721</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="67" spans="1:52" ht="17.399999999999999">
+    <row r="67" spans="1:52" ht="16.5">
       <c r="A67" s="1" t="s">
         <v>555</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="68" spans="1:52" ht="17.399999999999999">
+    <row r="68" spans="1:52" ht="16.5">
       <c r="A68" s="1" t="s">
         <v>718</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="69" spans="1:52" ht="17.399999999999999">
+    <row r="69" spans="1:52" ht="16.5">
       <c r="A69" s="1" t="s">
         <v>719</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="70" spans="1:52" ht="17.399999999999999">
+    <row r="70" spans="1:52" ht="16.5">
       <c r="A70" s="1" t="s">
         <v>707</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="71" spans="1:52" ht="17.399999999999999">
+    <row r="71" spans="1:52" ht="16.5">
       <c r="A71" s="1" t="s">
         <v>605</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="72" spans="1:52" ht="17.399999999999999">
+    <row r="72" spans="1:52" ht="16.5">
       <c r="A72" s="1" t="s">
         <v>556</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="73" spans="1:52" ht="17.399999999999999">
+    <row r="73" spans="1:52" ht="16.5">
       <c r="A73" s="1" t="s">
         <v>752</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="74" spans="1:52" ht="17.399999999999999">
+    <row r="74" spans="1:52" ht="16.5">
       <c r="A74" s="1" t="s">
         <v>565</v>
       </c>
@@ -19591,7 +19591,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="75" spans="1:52" ht="17.399999999999999">
+    <row r="75" spans="1:52" ht="16.5">
       <c r="A75" s="1" t="s">
         <v>715</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="76" spans="1:52" ht="17.399999999999999">
+    <row r="76" spans="1:52" ht="16.5">
       <c r="A76" s="1" t="s">
         <v>733</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="77" spans="1:52" ht="17.399999999999999">
+    <row r="77" spans="1:52" ht="16.5">
       <c r="A77" s="1" t="s">
         <v>739</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="78" spans="1:52" ht="17.399999999999999">
+    <row r="78" spans="1:52" ht="16.5">
       <c r="A78" s="1" t="s">
         <v>569</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="79" spans="1:52" ht="17.399999999999999">
+    <row r="79" spans="1:52" ht="16.5">
       <c r="A79" s="1" t="s">
         <v>720</v>
       </c>
@@ -20357,7 +20357,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="80" spans="1:52" ht="17.399999999999999">
+    <row r="80" spans="1:52" ht="16.5">
       <c r="A80" s="1" t="s">
         <v>589</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="81" spans="1:52" ht="17.399999999999999">
+    <row r="81" spans="1:52" ht="16.5">
       <c r="A81" s="1" t="s">
         <v>717</v>
       </c>
@@ -20663,7 +20663,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="82" spans="1:52" ht="17.399999999999999">
+    <row r="82" spans="1:52" ht="16.5">
       <c r="A82" s="1" t="s">
         <v>712</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="83" spans="1:52" ht="17.399999999999999">
+    <row r="83" spans="1:52" ht="16.5">
       <c r="A83" s="1" t="s">
         <v>730</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="84" spans="1:52" ht="17.399999999999999">
+    <row r="84" spans="1:52" ht="16.5">
       <c r="A84" s="1" t="s">
         <v>716</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="85" spans="1:52" ht="17.399999999999999">
+    <row r="85" spans="1:52" ht="16.5">
       <c r="A85" s="1" t="s">
         <v>741</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="86" spans="1:52" ht="17.399999999999999">
+    <row r="86" spans="1:52" ht="16.5">
       <c r="A86" s="1" t="s">
         <v>713</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="87" spans="1:52" ht="17.399999999999999">
+    <row r="87" spans="1:52" ht="16.5">
       <c r="A87" s="1" t="s">
         <v>577</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="88" spans="1:52" ht="17.399999999999999">
+    <row r="88" spans="1:52" ht="16.5">
       <c r="A88" s="1" t="s">
         <v>738</v>
       </c>
@@ -21741,7 +21741,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="89" spans="1:52" ht="17.399999999999999">
+    <row r="89" spans="1:52" ht="16.5">
       <c r="A89" s="1" t="s">
         <v>561</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="90" spans="1:52" ht="17.399999999999999">
+    <row r="90" spans="1:52" ht="16.5">
       <c r="A90" s="1" t="s">
         <v>572</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="91" spans="1:52" ht="17.399999999999999">
+    <row r="91" spans="1:52" ht="16.5">
       <c r="A91" s="1" t="s">
         <v>604</v>
       </c>
@@ -22201,7 +22201,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="92" spans="1:52" ht="17.399999999999999">
+    <row r="92" spans="1:52" ht="16.5">
       <c r="A92" s="1" t="s">
         <v>570</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="93" spans="1:52" ht="17.399999999999999">
+    <row r="93" spans="1:52" ht="16.5">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -22507,7 +22507,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="94" spans="1:52" ht="17.399999999999999">
+    <row r="94" spans="1:52" ht="16.5">
       <c r="A94" s="1" t="s">
         <v>574</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="95" spans="1:52" ht="17.399999999999999">
+    <row r="95" spans="1:52" ht="16.5">
       <c r="A95" s="1" t="s">
         <v>79</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="96" spans="1:52" ht="17.399999999999999">
+    <row r="96" spans="1:52" ht="16.5">
       <c r="A96" s="1" t="s">
         <v>560</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="97" spans="1:52" ht="17.399999999999999">
+    <row r="97" spans="1:52" ht="16.5">
       <c r="A97" s="1" t="s">
         <v>742</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="98" spans="1:52" ht="17.399999999999999">
+    <row r="98" spans="1:52" ht="16.5">
       <c r="A98" s="1" t="s">
         <v>573</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="99" spans="1:52" ht="17.399999999999999">
+    <row r="99" spans="1:52" ht="16.5">
       <c r="A99" s="1" t="s">
         <v>84</v>
       </c>
@@ -23421,7 +23421,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="100" spans="1:52" ht="17.399999999999999">
+    <row r="100" spans="1:52" ht="16.5">
       <c r="A100" s="1" t="s">
         <v>743</v>
       </c>
@@ -23575,7 +23575,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="101" spans="1:52" ht="17.399999999999999">
+    <row r="101" spans="1:52" ht="16.5">
       <c r="A101" s="1" t="s">
         <v>745</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="102" spans="1:52" ht="17.399999999999999">
+    <row r="102" spans="1:52" ht="16.5">
       <c r="A102" s="1" t="s">
         <v>596</v>
       </c>
@@ -23883,7 +23883,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="103" spans="1:52" ht="17.399999999999999">
+    <row r="103" spans="1:52" ht="16.5">
       <c r="A103" s="1" t="s">
         <v>751</v>
       </c>
@@ -24037,7 +24037,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="104" spans="1:52" ht="17.399999999999999">
+    <row r="104" spans="1:52" ht="16.5">
       <c r="A104" s="1" t="s">
         <v>568</v>
       </c>
@@ -24191,7 +24191,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="105" spans="1:52" ht="17.399999999999999">
+    <row r="105" spans="1:52" ht="16.5">
       <c r="A105" s="1" t="s">
         <v>580</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="106" spans="1:52" ht="17.399999999999999">
+    <row r="106" spans="1:52" ht="16.5">
       <c r="A106" s="1" t="s">
         <v>587</v>
       </c>
@@ -24499,7 +24499,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="107" spans="1:52" ht="17.399999999999999">
+    <row r="107" spans="1:52" ht="16.5">
       <c r="A107" s="1" t="s">
         <v>562</v>
       </c>
@@ -24651,7 +24651,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="108" spans="1:52" ht="17.399999999999999">
+    <row r="108" spans="1:52" ht="16.5">
       <c r="A108" s="1" t="s">
         <v>748</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="109" spans="1:52" ht="17.399999999999999">
+    <row r="109" spans="1:52" ht="16.5">
       <c r="A109" s="1" t="s">
         <v>747</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="110" spans="1:52" ht="17.399999999999999">
+    <row r="110" spans="1:52" ht="16.5">
       <c r="A110" s="1" t="s">
         <v>750</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="111" spans="1:52" ht="17.399999999999999">
+    <row r="111" spans="1:52" ht="16.5">
       <c r="A111" s="1" t="s">
         <v>602</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="112" spans="1:52" ht="17.399999999999999">
+    <row r="112" spans="1:52" ht="16.5">
       <c r="A112" s="1" t="s">
         <v>598</v>
       </c>
@@ -25415,7 +25415,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="113" spans="1:52" ht="17.399999999999999">
+    <row r="113" spans="1:52" ht="16.5">
       <c r="A113" s="1" t="s">
         <v>744</v>
       </c>
@@ -25569,7 +25569,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="114" spans="1:52" ht="17.399999999999999">
+    <row r="114" spans="1:52" ht="16.5">
       <c r="A114" s="1" t="s">
         <v>595</v>
       </c>
@@ -25723,7 +25723,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="115" spans="1:52" ht="17.399999999999999">
+    <row r="115" spans="1:52" ht="16.5">
       <c r="A115" s="1" t="s">
         <v>583</v>
       </c>
@@ -25877,7 +25877,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="116" spans="1:52" ht="17.399999999999999">
+    <row r="116" spans="1:52" ht="16.5">
       <c r="A116" s="1" t="s">
         <v>582</v>
       </c>
@@ -26029,7 +26029,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="117" spans="1:52" ht="17.399999999999999">
+    <row r="117" spans="1:52" ht="16.5">
       <c r="A117" s="1" t="s">
         <v>593</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="118" spans="1:52" ht="17.399999999999999">
+    <row r="118" spans="1:52" ht="16.5">
       <c r="A118" s="1" t="s">
         <v>601</v>
       </c>
@@ -26337,7 +26337,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="119" spans="1:52" ht="17.399999999999999">
+    <row r="119" spans="1:52" ht="16.5">
       <c r="A119" s="1" t="s">
         <v>586</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="120" spans="1:52" ht="17.399999999999999">
+    <row r="120" spans="1:52" ht="16.5">
       <c r="A120" s="1" t="s">
         <v>552</v>
       </c>
@@ -26647,7 +26647,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="121" spans="1:52" ht="17.399999999999999">
+    <row r="121" spans="1:52" ht="16.5">
       <c r="A121" s="1" t="s">
         <v>592</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="122" spans="1:52" ht="17.399999999999999">
+    <row r="122" spans="1:52" ht="16.5">
       <c r="A122" s="1" t="s">
         <v>576</v>
       </c>
@@ -26955,7 +26955,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="123" spans="1:52" ht="17.399999999999999">
+    <row r="123" spans="1:52" ht="16.5">
       <c r="A123" s="1" t="s">
         <v>597</v>
       </c>
@@ -27107,7 +27107,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="124" spans="1:52" ht="17.399999999999999">
+    <row r="124" spans="1:52" ht="16.5">
       <c r="A124" s="1" t="s">
         <v>88</v>
       </c>
@@ -27259,7 +27259,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="125" spans="1:52" ht="17.399999999999999">
+    <row r="125" spans="1:52" ht="16.5">
       <c r="A125" s="1" t="s">
         <v>591</v>
       </c>
@@ -27411,7 +27411,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="126" spans="1:52" ht="17.399999999999999">
+    <row r="126" spans="1:52" ht="16.5">
       <c r="A126" s="1" t="s">
         <v>588</v>
       </c>
@@ -27565,7 +27565,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="127" spans="1:52" ht="17.399999999999999">
+    <row r="127" spans="1:52" ht="16.5">
       <c r="A127" s="1" t="s">
         <v>95</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="128" spans="1:52" ht="17.399999999999999">
+    <row r="128" spans="1:52" ht="16.5">
       <c r="A128" s="1" t="s">
         <v>87</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="129" spans="1:52" ht="17.399999999999999">
+    <row r="129" spans="1:52" ht="16.5">
       <c r="A129" s="1" t="s">
         <v>584</v>
       </c>
@@ -28029,7 +28029,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="130" spans="1:52" ht="17.399999999999999">
+    <row r="130" spans="1:52" ht="16.5">
       <c r="A130" s="1" t="s">
         <v>99</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="131" spans="1:52" ht="17.399999999999999">
+    <row r="131" spans="1:52" ht="16.5">
       <c r="A131" s="1" t="s">
         <v>594</v>
       </c>
@@ -28337,7 +28337,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="132" spans="1:52" ht="17.399999999999999">
+    <row r="132" spans="1:52" ht="16.5">
       <c r="A132" s="1" t="s">
         <v>107</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="133" spans="1:52" ht="17.399999999999999">
+    <row r="133" spans="1:52" ht="16.5">
       <c r="A133" s="1" t="s">
         <v>590</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="134" spans="1:52" ht="17.399999999999999">
+    <row r="134" spans="1:52" ht="16.5">
       <c r="A134" s="1" t="s">
         <v>78</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="135" spans="1:52" ht="17.399999999999999">
+    <row r="135" spans="1:52" ht="16.5">
       <c r="A135" s="1" t="s">
         <v>105</v>
       </c>
@@ -28947,7 +28947,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="136" spans="1:52" ht="17.399999999999999">
+    <row r="136" spans="1:52" ht="16.5">
       <c r="A136" s="1" t="s">
         <v>98</v>
       </c>
@@ -29099,7 +29099,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="137" spans="1:52" ht="17.399999999999999">
+    <row r="137" spans="1:52" ht="16.5">
       <c r="A137" s="1" t="s">
         <v>581</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="138" spans="1:52" ht="17.399999999999999">
+    <row r="138" spans="1:52" ht="16.5">
       <c r="A138" s="1" t="s">
         <v>54</v>
       </c>
@@ -29407,7 +29407,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="139" spans="1:52" ht="17.399999999999999">
+    <row r="139" spans="1:52" ht="16.5">
       <c r="A139" s="1" t="s">
         <v>22</v>
       </c>
@@ -29561,7 +29561,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="140" spans="1:52" ht="17.399999999999999">
+    <row r="140" spans="1:52" ht="16.5">
       <c r="A140" s="1" t="s">
         <v>585</v>
       </c>
@@ -29713,7 +29713,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="141" spans="1:52" ht="17.399999999999999">
+    <row r="141" spans="1:52" ht="16.5">
       <c r="A141" s="1" t="s">
         <v>51</v>
       </c>
@@ -29867,7 +29867,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="142" spans="1:52" ht="17.399999999999999">
+    <row r="142" spans="1:52" ht="16.5">
       <c r="A142" s="1" t="s">
         <v>92</v>
       </c>
@@ -30021,7 +30021,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="143" spans="1:52" ht="17.399999999999999">
+    <row r="143" spans="1:52" ht="16.5">
       <c r="A143" s="1" t="s">
         <v>106</v>
       </c>
@@ -30173,7 +30173,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="144" spans="1:52" ht="17.399999999999999">
+    <row r="144" spans="1:52" ht="16.5">
       <c r="A144" s="1" t="s">
         <v>70</v>
       </c>
@@ -30325,7 +30325,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="145" spans="1:52" ht="17.399999999999999">
+    <row r="145" spans="1:52" ht="16.5">
       <c r="A145" s="1" t="s">
         <v>49</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="146" spans="1:52" ht="17.399999999999999">
+    <row r="146" spans="1:52" ht="16.5">
       <c r="A146" s="1" t="s">
         <v>112</v>
       </c>
@@ -30629,7 +30629,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="147" spans="1:52" ht="17.399999999999999">
+    <row r="147" spans="1:52" ht="16.5">
       <c r="A147" s="1" t="s">
         <v>97</v>
       </c>
@@ -30781,7 +30781,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="148" spans="1:52" ht="17.399999999999999">
+    <row r="148" spans="1:52" ht="16.5">
       <c r="A148" s="1" t="s">
         <v>104</v>
       </c>
@@ -30935,7 +30935,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="149" spans="1:52" ht="17.399999999999999">
+    <row r="149" spans="1:52" ht="16.5">
       <c r="A149" s="1" t="s">
         <v>90</v>
       </c>
@@ -31089,7 +31089,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="150" spans="1:52" ht="17.399999999999999">
+    <row r="150" spans="1:52" ht="16.5">
       <c r="A150" s="1" t="s">
         <v>603</v>
       </c>
@@ -31241,7 +31241,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="151" spans="1:52" ht="17.399999999999999">
+    <row r="151" spans="1:52" ht="16.5">
       <c r="A151" s="1" t="s">
         <v>89</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="152" spans="1:52" ht="17.399999999999999">
+    <row r="152" spans="1:52" ht="16.5">
       <c r="A152" s="1" t="s">
         <v>85</v>
       </c>
@@ -31547,7 +31547,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="153" spans="1:52" ht="17.399999999999999">
+    <row r="153" spans="1:52" ht="16.5">
       <c r="A153" s="1" t="s">
         <v>100</v>
       </c>
@@ -31703,7 +31703,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="154" spans="1:52" ht="17.399999999999999">
+    <row r="154" spans="1:52" ht="16.5">
       <c r="A154" s="1" t="s">
         <v>109</v>
       </c>
@@ -31857,7 +31857,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="155" spans="1:52" ht="17.399999999999999">
+    <row r="155" spans="1:52" ht="16.5">
       <c r="A155" s="1" t="s">
         <v>553</v>
       </c>
@@ -32009,7 +32009,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="156" spans="1:52" ht="17.399999999999999">
+    <row r="156" spans="1:52" ht="16.5">
       <c r="A156" s="1" t="s">
         <v>102</v>
       </c>
@@ -32165,7 +32165,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="157" spans="1:52" ht="17.399999999999999">
+    <row r="157" spans="1:52" ht="16.5">
       <c r="A157" s="1" t="s">
         <v>80</v>
       </c>
@@ -32319,7 +32319,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="158" spans="1:52" ht="17.399999999999999">
+    <row r="158" spans="1:52" ht="16.5">
       <c r="A158" s="1" t="s">
         <v>83</v>
       </c>
@@ -32471,7 +32471,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="159" spans="1:52" ht="17.399999999999999">
+    <row r="159" spans="1:52" ht="16.5">
       <c r="A159" s="1" t="s">
         <v>94</v>
       </c>
@@ -32627,7 +32627,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="160" spans="1:52" ht="17.399999999999999">
+    <row r="160" spans="1:52" ht="16.5">
       <c r="A160" s="1" t="s">
         <v>50</v>
       </c>
@@ -32781,7 +32781,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="161" spans="1:52" ht="17.399999999999999">
+    <row r="161" spans="1:52" ht="16.5">
       <c r="A161" s="1" t="s">
         <v>86</v>
       </c>
@@ -32935,7 +32935,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="162" spans="1:52" ht="17.399999999999999">
+    <row r="162" spans="1:52" ht="16.5">
       <c r="A162" s="1" t="s">
         <v>71</v>
       </c>
@@ -33089,7 +33089,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="163" spans="1:52" ht="17.399999999999999">
+    <row r="163" spans="1:52" ht="16.5">
       <c r="A163" s="1" t="s">
         <v>91</v>
       </c>
@@ -33245,7 +33245,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="164" spans="1:52" ht="17.399999999999999">
+    <row r="164" spans="1:52" ht="16.5">
       <c r="A164" s="1" t="s">
         <v>101</v>
       </c>
@@ -33399,7 +33399,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="165" spans="1:52" ht="17.399999999999999">
+    <row r="165" spans="1:52" ht="16.5">
       <c r="A165" s="1" t="s">
         <v>82</v>
       </c>
@@ -33551,7 +33551,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="166" spans="1:52" ht="17.399999999999999">
+    <row r="166" spans="1:52" ht="16.5">
       <c r="A166" s="1" t="s">
         <v>66</v>
       </c>
@@ -33703,7 +33703,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="167" spans="1:52" ht="17.399999999999999">
+    <row r="167" spans="1:52" ht="16.5">
       <c r="A167" s="26" t="s">
         <v>108</v>
       </c>
@@ -33857,7 +33857,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="168" spans="1:52" ht="17.399999999999999">
+    <row r="168" spans="1:52" ht="16.5">
       <c r="A168" s="1" t="s">
         <v>52</v>
       </c>
@@ -34011,7 +34011,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="169" spans="1:52" ht="17.399999999999999">
+    <row r="169" spans="1:52" ht="16.5">
       <c r="A169" s="1" t="s">
         <v>32</v>
       </c>
@@ -34165,7 +34165,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="170" spans="1:52" ht="17.399999999999999">
+    <row r="170" spans="1:52" ht="16.5">
       <c r="A170" s="1" t="s">
         <v>77</v>
       </c>
@@ -34319,7 +34319,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="171" spans="1:52" ht="17.399999999999999">
+    <row r="171" spans="1:52" ht="16.5">
       <c r="A171" s="1" t="s">
         <v>579</v>
       </c>
@@ -34473,7 +34473,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="172" spans="1:52" ht="17.399999999999999">
+    <row r="172" spans="1:52" ht="16.5">
       <c r="A172" s="1" t="s">
         <v>63</v>
       </c>
@@ -34627,7 +34627,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="173" spans="1:52" ht="17.399999999999999">
+    <row r="173" spans="1:52" ht="16.5">
       <c r="A173" s="1" t="s">
         <v>45</v>
       </c>
@@ -34781,7 +34781,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="174" spans="1:52" ht="17.399999999999999">
+    <row r="174" spans="1:52" ht="16.5">
       <c r="A174" s="1" t="s">
         <v>59</v>
       </c>
@@ -34935,7 +34935,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="175" spans="1:52" ht="17.399999999999999">
+    <row r="175" spans="1:52" ht="16.5">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -35089,7 +35089,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="176" spans="1:52" ht="17.399999999999999">
+    <row r="176" spans="1:52" ht="16.5">
       <c r="A176" s="1" t="s">
         <v>44</v>
       </c>
@@ -35245,7 +35245,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="177" spans="1:52" ht="17.399999999999999">
+    <row r="177" spans="1:52" ht="16.5">
       <c r="A177" s="1" t="s">
         <v>55</v>
       </c>
@@ -35399,7 +35399,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="178" spans="1:52" ht="17.399999999999999">
+    <row r="178" spans="1:52" ht="16.5">
       <c r="A178" s="1" t="s">
         <v>23</v>
       </c>
@@ -35553,7 +35553,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="179" spans="1:52" ht="17.399999999999999">
+    <row r="179" spans="1:52" ht="16.5">
       <c r="A179" s="1" t="s">
         <v>62</v>
       </c>
@@ -35707,7 +35707,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="180" spans="1:52" ht="17.399999999999999">
+    <row r="180" spans="1:52" ht="16.5">
       <c r="A180" s="1" t="s">
         <v>43</v>
       </c>
@@ -35861,7 +35861,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="181" spans="1:52" ht="17.399999999999999">
+    <row r="181" spans="1:52" ht="16.5">
       <c r="A181" s="1" t="s">
         <v>72</v>
       </c>
@@ -36015,7 +36015,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="182" spans="1:52" ht="17.399999999999999">
+    <row r="182" spans="1:52" ht="16.5">
       <c r="A182" s="1" t="s">
         <v>41</v>
       </c>
@@ -36169,7 +36169,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="183" spans="1:52" ht="17.399999999999999">
+    <row r="183" spans="1:52" ht="16.5">
       <c r="A183" s="1" t="s">
         <v>701</v>
       </c>
@@ -36323,7 +36323,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="184" spans="1:52" ht="17.399999999999999">
+    <row r="184" spans="1:52" ht="16.5">
       <c r="A184" s="1" t="s">
         <v>669</v>
       </c>
@@ -36477,7 +36477,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="185" spans="1:52" ht="17.399999999999999">
+    <row r="185" spans="1:52" ht="16.5">
       <c r="A185" s="1" t="s">
         <v>662</v>
       </c>
@@ -36631,7 +36631,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="186" spans="1:52" ht="17.399999999999999">
+    <row r="186" spans="1:52" ht="16.5">
       <c r="A186" s="1" t="s">
         <v>652</v>
       </c>
@@ -36785,7 +36785,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="187" spans="1:52" ht="17.399999999999999">
+    <row r="187" spans="1:52" ht="16.5">
       <c r="A187" s="1" t="s">
         <v>673</v>
       </c>
@@ -36939,7 +36939,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="188" spans="1:52" ht="17.399999999999999">
+    <row r="188" spans="1:52" ht="16.5">
       <c r="A188" s="1" t="s">
         <v>692</v>
       </c>
@@ -37095,7 +37095,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="189" spans="1:52" ht="17.399999999999999">
+    <row r="189" spans="1:52" ht="16.5">
       <c r="A189" s="1" t="s">
         <v>648</v>
       </c>
@@ -37249,7 +37249,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="190" spans="1:52" ht="17.399999999999999">
+    <row r="190" spans="1:52" ht="16.5">
       <c r="A190" s="1" t="s">
         <v>674</v>
       </c>
@@ -37403,7 +37403,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="191" spans="1:52" ht="17.399999999999999">
+    <row r="191" spans="1:52" ht="16.5">
       <c r="A191" s="1" t="s">
         <v>653</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="192" spans="1:52" ht="17.399999999999999">
+    <row r="192" spans="1:52" ht="16.5">
       <c r="A192" s="1" t="s">
         <v>702</v>
       </c>
@@ -37715,7 +37715,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="193" spans="1:52" ht="17.399999999999999">
+    <row r="193" spans="1:52" ht="16.5">
       <c r="A193" s="1" t="s">
         <v>686</v>
       </c>
@@ -37869,7 +37869,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="194" spans="1:52" ht="17.399999999999999">
+    <row r="194" spans="1:52" ht="16.5">
       <c r="A194" s="1" t="s">
         <v>635</v>
       </c>
@@ -38025,7 +38025,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="195" spans="1:52" ht="17.399999999999999">
+    <row r="195" spans="1:52" ht="16.5">
       <c r="A195" s="1" t="s">
         <v>75</v>
       </c>
@@ -38181,7 +38181,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="196" spans="1:52" ht="17.399999999999999">
+    <row r="196" spans="1:52" ht="16.5">
       <c r="A196" s="1" t="s">
         <v>76</v>
       </c>
@@ -38335,7 +38335,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="197" spans="1:52" ht="17.399999999999999">
+    <row r="197" spans="1:52" ht="16.5">
       <c r="A197" s="1" t="s">
         <v>115</v>
       </c>
@@ -38489,7 +38489,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="198" spans="1:52" ht="17.399999999999999">
+    <row r="198" spans="1:52" ht="16.5">
       <c r="A198" s="1" t="s">
         <v>57</v>
       </c>
@@ -38643,7 +38643,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="199" spans="1:52" ht="17.399999999999999">
+    <row r="199" spans="1:52" ht="16.5">
       <c r="A199" s="1" t="s">
         <v>81</v>
       </c>
@@ -38797,7 +38797,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="200" spans="1:52" ht="17.399999999999999">
+    <row r="200" spans="1:52" ht="16.5">
       <c r="A200" s="1" t="s">
         <v>67</v>
       </c>
@@ -38953,7 +38953,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="201" spans="1:52" ht="17.399999999999999">
+    <row r="201" spans="1:52" ht="16.5">
       <c r="A201" s="1" t="s">
         <v>24</v>
       </c>
@@ -39107,7 +39107,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="202" spans="1:52" ht="17.399999999999999">
+    <row r="202" spans="1:52" ht="16.5">
       <c r="A202" s="1" t="s">
         <v>58</v>
       </c>
@@ -39261,7 +39261,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="203" spans="1:52" ht="17.399999999999999">
+    <row r="203" spans="1:52" ht="16.5">
       <c r="A203" s="1" t="s">
         <v>46</v>
       </c>
@@ -39415,7 +39415,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="204" spans="1:52" ht="17.399999999999999">
+    <row r="204" spans="1:52" ht="16.5">
       <c r="A204" s="1" t="s">
         <v>35</v>
       </c>
@@ -39569,7 +39569,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="205" spans="1:52" ht="17.399999999999999">
+    <row r="205" spans="1:52" ht="16.5">
       <c r="A205" s="1" t="s">
         <v>129</v>
       </c>
@@ -39725,7 +39725,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="206" spans="1:52" ht="17.399999999999999">
+    <row r="206" spans="1:52" ht="16.5">
       <c r="A206" s="1" t="s">
         <v>60</v>
       </c>
@@ -39879,7 +39879,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="207" spans="1:52" ht="17.399999999999999">
+    <row r="207" spans="1:52" ht="16.5">
       <c r="A207" s="1" t="s">
         <v>73</v>
       </c>
@@ -40035,7 +40035,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="208" spans="1:52" ht="17.399999999999999">
+    <row r="208" spans="1:52" ht="16.5">
       <c r="A208" s="1" t="s">
         <v>137</v>
       </c>
@@ -40189,7 +40189,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="209" spans="1:52" ht="17.399999999999999">
+    <row r="209" spans="1:52" ht="16.5">
       <c r="A209" s="1" t="s">
         <v>64</v>
       </c>
@@ -40343,7 +40343,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="210" spans="1:52" ht="17.399999999999999">
+    <row r="210" spans="1:52" ht="16.5">
       <c r="A210" s="1" t="s">
         <v>48</v>
       </c>
@@ -40497,7 +40497,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="211" spans="1:52" ht="17.399999999999999">
+    <row r="211" spans="1:52" ht="16.5">
       <c r="A211" s="1" t="s">
         <v>65</v>
       </c>
@@ -40651,7 +40651,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="212" spans="1:52" ht="17.399999999999999">
+    <row r="212" spans="1:52" ht="16.5">
       <c r="A212" s="1" t="s">
         <v>113</v>
       </c>
@@ -40805,7 +40805,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="213" spans="1:52" ht="17.399999999999999">
+    <row r="213" spans="1:52" ht="16.5">
       <c r="A213" s="1" t="s">
         <v>96</v>
       </c>
@@ -40959,7 +40959,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="214" spans="1:52" ht="17.399999999999999">
+    <row r="214" spans="1:52" ht="16.5">
       <c r="A214" s="1" t="s">
         <v>111</v>
       </c>
@@ -41113,7 +41113,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="215" spans="1:52" ht="17.399999999999999">
+    <row r="215" spans="1:52" ht="16.5">
       <c r="A215" s="1" t="s">
         <v>74</v>
       </c>
@@ -41267,7 +41267,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="216" spans="1:52" ht="17.399999999999999">
+    <row r="216" spans="1:52" ht="16.5">
       <c r="A216" s="1" t="s">
         <v>53</v>
       </c>
@@ -41421,7 +41421,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="217" spans="1:52" ht="17.399999999999999">
+    <row r="217" spans="1:52" ht="16.5">
       <c r="A217" s="1" t="s">
         <v>68</v>
       </c>
@@ -41575,7 +41575,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="218" spans="1:52" ht="17.399999999999999">
+    <row r="218" spans="1:52" ht="16.5">
       <c r="A218" s="1" t="s">
         <v>47</v>
       </c>
@@ -41729,7 +41729,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="219" spans="1:52" ht="17.399999999999999">
+    <row r="219" spans="1:52" ht="16.5">
       <c r="A219" s="1" t="s">
         <v>103</v>
       </c>
@@ -41883,7 +41883,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="220" spans="1:52" ht="17.399999999999999">
+    <row r="220" spans="1:52" ht="16.5">
       <c r="A220" s="1" t="s">
         <v>56</v>
       </c>
@@ -42037,7 +42037,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="221" spans="1:52" ht="17.399999999999999">
+    <row r="221" spans="1:52" ht="16.5">
       <c r="A221" s="1" t="s">
         <v>61</v>
       </c>
@@ -42193,7 +42193,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="222" spans="1:52" ht="17.399999999999999">
+    <row r="222" spans="1:52" ht="16.5">
       <c r="A222" s="1" t="s">
         <v>69</v>
       </c>
@@ -42347,7 +42347,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="223" spans="1:52" ht="17.399999999999999">
+    <row r="223" spans="1:52" ht="16.5">
       <c r="A223" s="1" t="s">
         <v>119</v>
       </c>
@@ -42501,7 +42501,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="224" spans="1:52" ht="17.399999999999999">
+    <row r="224" spans="1:52" ht="16.5">
       <c r="A224" s="1" t="s">
         <v>133</v>
       </c>
@@ -42655,7 +42655,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="225" spans="1:52" ht="17.399999999999999">
+    <row r="225" spans="1:52" ht="16.5">
       <c r="A225" s="1" t="s">
         <v>154</v>
       </c>
@@ -42809,7 +42809,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="226" spans="1:52" ht="17.399999999999999">
+    <row r="226" spans="1:52" ht="16.5">
       <c r="A226" s="1" t="s">
         <v>132</v>
       </c>
@@ -42963,7 +42963,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="227" spans="1:52" ht="17.399999999999999">
+    <row r="227" spans="1:52" ht="16.5">
       <c r="A227" s="1" t="s">
         <v>134</v>
       </c>
@@ -43117,7 +43117,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="228" spans="1:52" ht="17.399999999999999">
+    <row r="228" spans="1:52" ht="16.5">
       <c r="A228" s="1" t="s">
         <v>123</v>
       </c>
@@ -43271,7 +43271,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="229" spans="1:52" ht="17.399999999999999">
+    <row r="229" spans="1:52" ht="16.5">
       <c r="A229" s="1" t="s">
         <v>117</v>
       </c>
@@ -43425,7 +43425,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="230" spans="1:52" ht="17.399999999999999">
+    <row r="230" spans="1:52" ht="16.5">
       <c r="A230" s="1" t="s">
         <v>126</v>
       </c>
@@ -43579,7 +43579,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="231" spans="1:52" ht="17.399999999999999">
+    <row r="231" spans="1:52" ht="16.5">
       <c r="A231" s="1" t="s">
         <v>19</v>
       </c>
@@ -43733,7 +43733,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="232" spans="1:52" ht="17.399999999999999">
+    <row r="232" spans="1:52" ht="16.5">
       <c r="A232" s="1" t="s">
         <v>121</v>
       </c>
@@ -43887,7 +43887,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="233" spans="1:52" ht="17.399999999999999">
+    <row r="233" spans="1:52" ht="16.5">
       <c r="A233" s="1" t="s">
         <v>148</v>
       </c>
@@ -44041,7 +44041,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="234" spans="1:52" ht="17.399999999999999">
+    <row r="234" spans="1:52" ht="16.5">
       <c r="A234" s="1" t="s">
         <v>33</v>
       </c>
@@ -44195,7 +44195,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="235" spans="1:52" ht="17.399999999999999">
+    <row r="235" spans="1:52" ht="16.5">
       <c r="A235" s="1" t="s">
         <v>42</v>
       </c>
@@ -44349,7 +44349,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="236" spans="1:52" ht="17.399999999999999">
+    <row r="236" spans="1:52" ht="16.5">
       <c r="A236" s="1" t="s">
         <v>114</v>
       </c>
@@ -44503,7 +44503,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="237" spans="1:52" ht="17.399999999999999">
+    <row r="237" spans="1:52" ht="16.5">
       <c r="A237" s="1" t="s">
         <v>131</v>
       </c>
@@ -44657,7 +44657,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="238" spans="1:52" ht="17.399999999999999">
+    <row r="238" spans="1:52" ht="16.5">
       <c r="A238" s="1" t="s">
         <v>168</v>
       </c>
@@ -44811,7 +44811,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="239" spans="1:52" ht="17.399999999999999">
+    <row r="239" spans="1:52" ht="16.5">
       <c r="A239" s="1" t="s">
         <v>157</v>
       </c>
@@ -44965,7 +44965,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="240" spans="1:52" ht="17.399999999999999">
+    <row r="240" spans="1:52" ht="16.5">
       <c r="A240" s="1" t="s">
         <v>125</v>
       </c>
@@ -45117,7 +45117,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="241" spans="1:52" ht="17.399999999999999">
+    <row r="241" spans="1:52" ht="16.5">
       <c r="A241" s="1" t="s">
         <v>143</v>
       </c>
@@ -45269,7 +45269,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="242" spans="1:52" ht="17.399999999999999">
+    <row r="242" spans="1:52" ht="16.5">
       <c r="A242" s="1" t="s">
         <v>181</v>
       </c>
@@ -45421,7 +45421,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="243" spans="1:52" ht="17.399999999999999">
+    <row r="243" spans="1:52" ht="16.5">
       <c r="A243" s="1" t="s">
         <v>136</v>
       </c>
@@ -45577,7 +45577,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="244" spans="1:52" ht="17.399999999999999">
+    <row r="244" spans="1:52" ht="16.5">
       <c r="A244" s="1" t="s">
         <v>120</v>
       </c>
@@ -45731,7 +45731,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="245" spans="1:52" ht="17.399999999999999">
+    <row r="245" spans="1:52" ht="16.5">
       <c r="A245" s="1" t="s">
         <v>128</v>
       </c>
@@ -45883,7 +45883,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="246" spans="1:52" ht="17.399999999999999">
+    <row r="246" spans="1:52" ht="16.5">
       <c r="A246" s="1" t="s">
         <v>124</v>
       </c>
@@ -46035,7 +46035,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="247" spans="1:52" ht="17.399999999999999">
+    <row r="247" spans="1:52" ht="16.5">
       <c r="A247" s="1" t="s">
         <v>110</v>
       </c>
@@ -46187,7 +46187,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="248" spans="1:52" ht="17.399999999999999">
+    <row r="248" spans="1:52" ht="16.5">
       <c r="A248" s="1" t="s">
         <v>118</v>
       </c>
@@ -46339,7 +46339,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="249" spans="1:52" ht="17.399999999999999">
+    <row r="249" spans="1:52" ht="16.5">
       <c r="A249" s="1" t="s">
         <v>34</v>
       </c>
@@ -46495,7 +46495,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="250" spans="1:52" ht="17.399999999999999">
+    <row r="250" spans="1:52" ht="16.5">
       <c r="A250" s="1" t="s">
         <v>135</v>
       </c>
@@ -46651,7 +46651,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="251" spans="1:52" ht="17.399999999999999">
+    <row r="251" spans="1:52" ht="16.5">
       <c r="A251" s="1" t="s">
         <v>155</v>
       </c>
@@ -46807,7 +46807,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="252" spans="1:52" ht="17.399999999999999">
+    <row r="252" spans="1:52" ht="16.5">
       <c r="A252" s="1" t="s">
         <v>151</v>
       </c>
@@ -46959,7 +46959,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="253" spans="1:52" ht="17.399999999999999">
+    <row r="253" spans="1:52" ht="16.5">
       <c r="A253" s="1" t="s">
         <v>185</v>
       </c>
@@ -47113,7 +47113,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="254" spans="1:52" ht="17.399999999999999">
+    <row r="254" spans="1:52" ht="16.5">
       <c r="A254" s="1" t="s">
         <v>171</v>
       </c>
@@ -47267,7 +47267,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="255" spans="1:52" ht="17.399999999999999">
+    <row r="255" spans="1:52" ht="16.5">
       <c r="A255" s="1" t="s">
         <v>138</v>
       </c>
@@ -47419,7 +47419,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="256" spans="1:52" ht="17.399999999999999">
+    <row r="256" spans="1:52" ht="16.5">
       <c r="A256" s="1" t="s">
         <v>152</v>
       </c>
@@ -47571,7 +47571,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="257" spans="1:52" ht="17.399999999999999">
+    <row r="257" spans="1:52" ht="16.5">
       <c r="A257" s="1" t="s">
         <v>144</v>
       </c>
@@ -47727,7 +47727,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="258" spans="1:52" ht="17.399999999999999">
+    <row r="258" spans="1:52" ht="16.5">
       <c r="A258" s="1" t="s">
         <v>146</v>
       </c>
@@ -47795,7 +47795,7 @@
         <v>500</v>
       </c>
       <c r="W258" s="13">
-        <v>1800</v>
+        <v>18000</v>
       </c>
       <c r="X258" s="4" t="s">
         <v>2522</v>
@@ -47883,7 +47883,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="259" spans="1:52" ht="17.399999999999999">
+    <row r="259" spans="1:52" ht="16.5">
       <c r="A259" s="1" t="s">
         <v>153</v>
       </c>
@@ -48035,7 +48035,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="260" spans="1:52" ht="17.399999999999999">
+    <row r="260" spans="1:52" ht="16.5">
       <c r="A260" s="1" t="s">
         <v>166</v>
       </c>
@@ -48187,7 +48187,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="261" spans="1:52" ht="17.399999999999999">
+    <row r="261" spans="1:52" ht="16.5">
       <c r="A261" s="1" t="s">
         <v>170</v>
       </c>
@@ -48341,7 +48341,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="262" spans="1:52" ht="17.399999999999999">
+    <row r="262" spans="1:52" ht="16.5">
       <c r="A262" s="1" t="s">
         <v>156</v>
       </c>
@@ -48495,7 +48495,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="263" spans="1:52" ht="17.399999999999999">
+    <row r="263" spans="1:52" ht="16.5">
       <c r="A263" s="1" t="s">
         <v>184</v>
       </c>
@@ -48647,7 +48647,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="264" spans="1:52" ht="17.399999999999999">
+    <row r="264" spans="1:52" ht="16.5">
       <c r="A264" s="1" t="s">
         <v>147</v>
       </c>
@@ -48799,7 +48799,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="265" spans="1:52" ht="17.399999999999999">
+    <row r="265" spans="1:52" ht="16.5">
       <c r="A265" s="1" t="s">
         <v>145</v>
       </c>
@@ -48951,7 +48951,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="266" spans="1:52" ht="17.399999999999999">
+    <row r="266" spans="1:52" ht="16.5">
       <c r="A266" s="1" t="s">
         <v>130</v>
       </c>
@@ -49105,7 +49105,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="267" spans="1:52" ht="17.399999999999999">
+    <row r="267" spans="1:52" ht="16.5">
       <c r="A267" s="1" t="s">
         <v>158</v>
       </c>
@@ -49257,7 +49257,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="268" spans="1:52" ht="17.399999999999999">
+    <row r="268" spans="1:52" ht="16.5">
       <c r="A268" s="1" t="s">
         <v>141</v>
       </c>
@@ -49409,7 +49409,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="269" spans="1:52" ht="17.399999999999999">
+    <row r="269" spans="1:52" ht="16.5">
       <c r="A269" s="1" t="s">
         <v>127</v>
       </c>
@@ -49565,7 +49565,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="270" spans="1:52" ht="17.399999999999999">
+    <row r="270" spans="1:52" ht="16.5">
       <c r="A270" s="1" t="s">
         <v>139</v>
       </c>
@@ -49717,7 +49717,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="271" spans="1:52" ht="17.399999999999999">
+    <row r="271" spans="1:52" ht="16.5">
       <c r="A271" s="1" t="s">
         <v>122</v>
       </c>
@@ -49873,7 +49873,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="272" spans="1:52" ht="17.399999999999999">
+    <row r="272" spans="1:52" ht="16.5">
       <c r="A272" s="1" t="s">
         <v>187</v>
       </c>
@@ -50027,7 +50027,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="273" spans="1:52" ht="17.399999999999999">
+    <row r="273" spans="1:52" ht="16.5">
       <c r="A273" s="1" t="s">
         <v>150</v>
       </c>
@@ -50179,7 +50179,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="274" spans="1:52" ht="17.399999999999999">
+    <row r="274" spans="1:52" ht="16.5">
       <c r="A274" s="1" t="s">
         <v>186</v>
       </c>
@@ -50331,7 +50331,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="275" spans="1:52" ht="17.399999999999999">
+    <row r="275" spans="1:52" ht="16.5">
       <c r="A275" s="1" t="s">
         <v>142</v>
       </c>
@@ -50485,7 +50485,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="276" spans="1:52" ht="17.399999999999999">
+    <row r="276" spans="1:52" ht="16.5">
       <c r="A276" s="1" t="s">
         <v>180</v>
       </c>
@@ -50641,7 +50641,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="277" spans="1:52" ht="17.399999999999999">
+    <row r="277" spans="1:52" ht="16.5">
       <c r="A277" s="1" t="s">
         <v>163</v>
       </c>
@@ -50795,7 +50795,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="278" spans="1:52" ht="17.399999999999999">
+    <row r="278" spans="1:52" ht="16.5">
       <c r="A278" s="1" t="s">
         <v>159</v>
       </c>
@@ -50949,7 +50949,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="279" spans="1:52" ht="17.399999999999999">
+    <row r="279" spans="1:52" ht="16.5">
       <c r="A279" s="1" t="s">
         <v>162</v>
       </c>
@@ -51101,7 +51101,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="280" spans="1:52" ht="17.399999999999999">
+    <row r="280" spans="1:52" ht="16.5">
       <c r="A280" s="1" t="s">
         <v>116</v>
       </c>
@@ -51253,7 +51253,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="281" spans="1:52" ht="17.399999999999999">
+    <row r="281" spans="1:52" ht="16.5">
       <c r="A281" s="1" t="s">
         <v>172</v>
       </c>
@@ -51405,7 +51405,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="282" spans="1:52" ht="17.399999999999999">
+    <row r="282" spans="1:52" ht="16.5">
       <c r="A282" s="1" t="s">
         <v>149</v>
       </c>
@@ -51557,7 +51557,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="283" spans="1:52" ht="17.399999999999999">
+    <row r="283" spans="1:52" ht="16.5">
       <c r="A283" s="1" t="s">
         <v>176</v>
       </c>
@@ -51713,7 +51713,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="284" spans="1:52" ht="17.399999999999999">
+    <row r="284" spans="1:52" ht="16.5">
       <c r="A284" s="1" t="s">
         <v>182</v>
       </c>
@@ -51867,7 +51867,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="285" spans="1:52" ht="17.399999999999999">
+    <row r="285" spans="1:52" ht="16.5">
       <c r="A285" s="1" t="s">
         <v>140</v>
       </c>
@@ -52021,7 +52021,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="286" spans="1:52" ht="17.399999999999999">
+    <row r="286" spans="1:52" ht="16.5">
       <c r="A286" s="1" t="s">
         <v>177</v>
       </c>
@@ -52175,7 +52175,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="287" spans="1:52" ht="17.399999999999999">
+    <row r="287" spans="1:52" ht="16.5">
       <c r="A287" s="1" t="s">
         <v>178</v>
       </c>
@@ -52331,7 +52331,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="288" spans="1:52" ht="17.399999999999999">
+    <row r="288" spans="1:52" ht="16.5">
       <c r="A288" s="1" t="s">
         <v>192</v>
       </c>
@@ -52485,7 +52485,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="289" spans="1:52" ht="17.399999999999999">
+    <row r="289" spans="1:52" ht="16.5">
       <c r="A289" s="1" t="s">
         <v>219</v>
       </c>
@@ -52637,7 +52637,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="290" spans="1:52" ht="17.399999999999999">
+    <row r="290" spans="1:52" ht="16.5">
       <c r="A290" s="1" t="s">
         <v>222</v>
       </c>
@@ -52791,7 +52791,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="291" spans="1:52" ht="17.399999999999999">
+    <row r="291" spans="1:52" ht="16.5">
       <c r="A291" s="1" t="s">
         <v>196</v>
       </c>
@@ -52945,7 +52945,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="292" spans="1:52" ht="17.399999999999999">
+    <row r="292" spans="1:52" ht="16.5">
       <c r="A292" s="1" t="s">
         <v>199</v>
       </c>
@@ -53101,7 +53101,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="293" spans="1:52" ht="17.399999999999999">
+    <row r="293" spans="1:52" ht="16.5">
       <c r="A293" s="1" t="s">
         <v>160</v>
       </c>
@@ -53257,7 +53257,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="294" spans="1:52" ht="17.399999999999999">
+    <row r="294" spans="1:52" ht="16.5">
       <c r="A294" s="1" t="s">
         <v>183</v>
       </c>
@@ -53409,7 +53409,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="295" spans="1:52" ht="17.399999999999999">
+    <row r="295" spans="1:52" ht="16.5">
       <c r="A295" s="1" t="s">
         <v>200</v>
       </c>
@@ -53563,7 +53563,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="296" spans="1:52" ht="17.399999999999999">
+    <row r="296" spans="1:52" ht="16.5">
       <c r="A296" s="1" t="s">
         <v>188</v>
       </c>
@@ -53717,7 +53717,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="297" spans="1:52" ht="17.399999999999999">
+    <row r="297" spans="1:52" ht="16.5">
       <c r="A297" s="1" t="s">
         <v>174</v>
       </c>
@@ -53869,7 +53869,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="298" spans="1:52" ht="17.399999999999999">
+    <row r="298" spans="1:52" ht="16.5">
       <c r="A298" s="1" t="s">
         <v>208</v>
       </c>
@@ -54021,7 +54021,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="299" spans="1:52" ht="17.399999999999999">
+    <row r="299" spans="1:52" ht="16.5">
       <c r="A299" s="1" t="s">
         <v>179</v>
       </c>
@@ -54173,7 +54173,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="300" spans="1:52" ht="17.399999999999999">
+    <row r="300" spans="1:52" ht="16.5">
       <c r="A300" s="1" t="s">
         <v>194</v>
       </c>
@@ -54325,7 +54325,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="301" spans="1:52" ht="17.399999999999999">
+    <row r="301" spans="1:52" ht="16.5">
       <c r="A301" s="1" t="s">
         <v>195</v>
       </c>
@@ -54477,7 +54477,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="302" spans="1:52" ht="17.399999999999999">
+    <row r="302" spans="1:52" ht="16.5">
       <c r="A302" s="1" t="s">
         <v>39</v>
       </c>
@@ -54629,7 +54629,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="303" spans="1:52" ht="17.399999999999999">
+    <row r="303" spans="1:52" ht="16.5">
       <c r="A303" s="1" t="s">
         <v>197</v>
       </c>
@@ -54781,7 +54781,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="304" spans="1:52" ht="17.399999999999999">
+    <row r="304" spans="1:52" ht="16.5">
       <c r="A304" s="1" t="s">
         <v>216</v>
       </c>
@@ -54933,7 +54933,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="305" spans="1:52" ht="17.399999999999999">
+    <row r="305" spans="1:52" ht="16.5">
       <c r="A305" s="1" t="s">
         <v>167</v>
       </c>
@@ -55085,7 +55085,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="306" spans="1:52" ht="17.399999999999999">
+    <row r="306" spans="1:52" ht="16.5">
       <c r="A306" s="1" t="s">
         <v>165</v>
       </c>
@@ -55237,7 +55237,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="307" spans="1:52" ht="17.399999999999999">
+    <row r="307" spans="1:52" ht="16.5">
       <c r="A307" s="1" t="s">
         <v>225</v>
       </c>
@@ -55391,7 +55391,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="308" spans="1:52" ht="17.399999999999999">
+    <row r="308" spans="1:52" ht="16.5">
       <c r="A308" s="1" t="s">
         <v>207</v>
       </c>
@@ -55543,7 +55543,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="309" spans="1:52" ht="17.399999999999999">
+    <row r="309" spans="1:52" ht="16.5">
       <c r="A309" s="1" t="s">
         <v>164</v>
       </c>
@@ -55695,7 +55695,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="310" spans="1:52" ht="17.399999999999999">
+    <row r="310" spans="1:52" ht="16.5">
       <c r="A310" s="1" t="s">
         <v>173</v>
       </c>
@@ -55847,7 +55847,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="311" spans="1:52" ht="17.399999999999999">
+    <row r="311" spans="1:52" ht="16.5">
       <c r="A311" s="1" t="s">
         <v>198</v>
       </c>
@@ -55999,7 +55999,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="312" spans="1:52" ht="17.399999999999999">
+    <row r="312" spans="1:52" ht="16.5">
       <c r="A312" s="1" t="s">
         <v>209</v>
       </c>
@@ -56153,7 +56153,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="313" spans="1:52" ht="17.399999999999999">
+    <row r="313" spans="1:52" ht="16.5">
       <c r="A313" s="1" t="s">
         <v>201</v>
       </c>
@@ -56307,7 +56307,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="314" spans="1:52" ht="17.399999999999999">
+    <row r="314" spans="1:52" ht="16.5">
       <c r="A314" s="1" t="s">
         <v>189</v>
       </c>
@@ -56459,7 +56459,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="315" spans="1:52" ht="17.399999999999999">
+    <row r="315" spans="1:52" ht="16.5">
       <c r="A315" s="1" t="s">
         <v>25</v>
       </c>
@@ -56615,7 +56615,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="316" spans="1:52" ht="17.399999999999999">
+    <row r="316" spans="1:52" ht="16.5">
       <c r="A316" s="1" t="s">
         <v>215</v>
       </c>
@@ -56767,7 +56767,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="317" spans="1:52" ht="17.399999999999999">
+    <row r="317" spans="1:52" ht="16.5">
       <c r="A317" s="1" t="s">
         <v>175</v>
       </c>
@@ -56919,7 +56919,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="318" spans="1:52" ht="17.399999999999999">
+    <row r="318" spans="1:52" ht="16.5">
       <c r="A318" s="1" t="s">
         <v>27</v>
       </c>
@@ -57073,7 +57073,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="319" spans="1:52" ht="17.399999999999999">
+    <row r="319" spans="1:52" ht="16.5">
       <c r="A319" s="1" t="s">
         <v>28</v>
       </c>
@@ -57229,7 +57229,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="320" spans="1:52" ht="17.399999999999999">
+    <row r="320" spans="1:52" ht="16.5">
       <c r="A320" s="1" t="s">
         <v>29</v>
       </c>
@@ -57385,7 +57385,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="321" spans="1:52" ht="17.399999999999999">
+    <row r="321" spans="1:52" ht="16.5">
       <c r="A321" s="1" t="s">
         <v>554</v>
       </c>
@@ -57541,7 +57541,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="322" spans="1:52" ht="17.399999999999999">
+    <row r="322" spans="1:52" ht="16.5">
       <c r="A322" s="1" t="s">
         <v>20</v>
       </c>
@@ -57695,7 +57695,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="323" spans="1:52" ht="17.399999999999999">
+    <row r="323" spans="1:52" ht="16.5">
       <c r="A323" s="1" t="s">
         <v>213</v>
       </c>
@@ -57849,7 +57849,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="324" spans="1:52" ht="17.399999999999999">
+    <row r="324" spans="1:52" ht="16.5">
       <c r="A324" s="1" t="s">
         <v>224</v>
       </c>
@@ -58003,7 +58003,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="325" spans="1:52" ht="17.399999999999999">
+    <row r="325" spans="1:52" ht="16.5">
       <c r="A325" s="1" t="s">
         <v>566</v>
       </c>
@@ -58157,7 +58157,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="326" spans="1:52" ht="17.399999999999999">
+    <row r="326" spans="1:52" ht="16.5">
       <c r="A326" s="1" t="s">
         <v>223</v>
       </c>
@@ -58311,7 +58311,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="327" spans="1:52" ht="17.399999999999999">
+    <row r="327" spans="1:52" ht="16.5">
       <c r="A327" s="1" t="s">
         <v>599</v>
       </c>
@@ -58463,7 +58463,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="328" spans="1:52" ht="17.399999999999999">
+    <row r="328" spans="1:52" ht="16.5">
       <c r="A328" s="1" t="s">
         <v>40</v>
       </c>
@@ -58617,7 +58617,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="329" spans="1:52" ht="17.399999999999999">
+    <row r="329" spans="1:52" ht="16.5">
       <c r="A329" s="1" t="s">
         <v>191</v>
       </c>
@@ -58771,7 +58771,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="330" spans="1:52" ht="17.399999999999999">
+    <row r="330" spans="1:52" ht="16.5">
       <c r="A330" s="1" t="s">
         <v>578</v>
       </c>
@@ -58923,7 +58923,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="331" spans="1:52" ht="17.399999999999999">
+    <row r="331" spans="1:52" ht="16.5">
       <c r="A331" s="1" t="s">
         <v>169</v>
       </c>
@@ -59075,7 +59075,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="332" spans="1:52" ht="17.399999999999999">
+    <row r="332" spans="1:52" ht="16.5">
       <c r="A332" s="1" t="s">
         <v>639</v>
       </c>
@@ -59227,7 +59227,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="333" spans="1:52" ht="17.399999999999999">
+    <row r="333" spans="1:52" ht="16.5">
       <c r="A333" s="1" t="s">
         <v>217</v>
       </c>
@@ -59379,7 +59379,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="334" spans="1:52" ht="17.399999999999999">
+    <row r="334" spans="1:52" ht="16.5">
       <c r="A334" s="1" t="s">
         <v>190</v>
       </c>
@@ -59531,7 +59531,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="335" spans="1:52" ht="17.399999999999999">
+    <row r="335" spans="1:52" ht="16.5">
       <c r="A335" s="1" t="s">
         <v>558</v>
       </c>
@@ -59683,7 +59683,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="336" spans="1:52" ht="17.399999999999999">
+    <row r="336" spans="1:52" ht="16.5">
       <c r="A336" s="1" t="s">
         <v>559</v>
       </c>
@@ -59837,7 +59837,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="337" spans="1:52" ht="17.399999999999999">
+    <row r="337" spans="1:52" ht="16.5">
       <c r="A337" s="1" t="s">
         <v>31</v>
       </c>
@@ -59989,7 +59989,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="338" spans="1:52" ht="17.399999999999999">
+    <row r="338" spans="1:52" ht="16.5">
       <c r="A338" s="1" t="s">
         <v>606</v>
       </c>
@@ -60141,7 +60141,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="339" spans="1:52" ht="17.399999999999999">
+    <row r="339" spans="1:52" ht="16.5">
       <c r="A339" s="1" t="s">
         <v>221</v>
       </c>
@@ -60293,7 +60293,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="340" spans="1:52" ht="17.399999999999999">
+    <row r="340" spans="1:52" ht="16.5">
       <c r="A340" s="1" t="s">
         <v>161</v>
       </c>
@@ -60447,7 +60447,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="341" spans="1:52" ht="17.399999999999999">
+    <row r="341" spans="1:52" ht="16.5">
       <c r="A341" s="1" t="s">
         <v>203</v>
       </c>
@@ -60601,7 +60601,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="342" spans="1:52" ht="17.399999999999999">
+    <row r="342" spans="1:52" ht="16.5">
       <c r="A342" s="1" t="s">
         <v>206</v>
       </c>
@@ -60755,7 +60755,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="343" spans="1:52" ht="17.399999999999999">
+    <row r="343" spans="1:52" ht="16.5">
       <c r="A343" s="1" t="s">
         <v>30</v>
       </c>
@@ -60909,7 +60909,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="344" spans="1:52" ht="17.399999999999999">
+    <row r="344" spans="1:52" ht="16.5">
       <c r="A344" s="1" t="s">
         <v>38</v>
       </c>
@@ -61063,7 +61063,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="345" spans="1:52" ht="17.399999999999999">
+    <row r="345" spans="1:52" ht="16.5">
       <c r="A345" s="1" t="s">
         <v>211</v>
       </c>
@@ -61217,7 +61217,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="346" spans="1:52" ht="17.399999999999999">
+    <row r="346" spans="1:52" ht="16.5">
       <c r="A346" s="1" t="s">
         <v>26</v>
       </c>
@@ -61369,7 +61369,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="347" spans="1:52" ht="17.399999999999999">
+    <row r="347" spans="1:52" ht="16.5">
       <c r="A347" s="1" t="s">
         <v>36</v>
       </c>
@@ -61523,7 +61523,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="348" spans="1:52" ht="17.399999999999999">
+    <row r="348" spans="1:52" ht="16.5">
       <c r="A348" s="1" t="s">
         <v>202</v>
       </c>
@@ -61677,7 +61677,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="349" spans="1:52" ht="17.399999999999999">
+    <row r="349" spans="1:52" ht="16.5">
       <c r="A349" s="1" t="s">
         <v>37</v>
       </c>
@@ -61831,7 +61831,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="350" spans="1:52" ht="17.399999999999999">
+    <row r="350" spans="1:52" ht="16.5">
       <c r="A350" s="1" t="s">
         <v>218</v>
       </c>
@@ -61983,7 +61983,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="351" spans="1:52" ht="17.399999999999999">
+    <row r="351" spans="1:52" ht="16.5">
       <c r="A351" s="1" t="s">
         <v>636</v>
       </c>
@@ -62139,7 +62139,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="352" spans="1:52" ht="17.399999999999999">
+    <row r="352" spans="1:52" ht="16.5">
       <c r="A352" s="1" t="s">
         <v>204</v>
       </c>
@@ -62291,7 +62291,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="353" spans="1:52" ht="17.399999999999999">
+    <row r="353" spans="1:52" ht="16.5">
       <c r="A353" s="1" t="s">
         <v>563</v>
       </c>
@@ -62447,7 +62447,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="354" spans="1:52" ht="17.399999999999999">
+    <row r="354" spans="1:52" ht="16.5">
       <c r="A354" s="1" t="s">
         <v>611</v>
       </c>
@@ -62599,7 +62599,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="355" spans="1:52" ht="17.399999999999999">
+    <row r="355" spans="1:52" ht="16.5">
       <c r="A355" s="1" t="s">
         <v>638</v>
       </c>
@@ -62753,7 +62753,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="356" spans="1:52" ht="17.399999999999999">
+    <row r="356" spans="1:52" ht="16.5">
       <c r="A356" s="1" t="s">
         <v>575</v>
       </c>
@@ -62907,7 +62907,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="357" spans="1:52" ht="17.399999999999999">
+    <row r="357" spans="1:52" ht="16.5">
       <c r="A357" s="1" t="s">
         <v>610</v>
       </c>
@@ -63061,7 +63061,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="358" spans="1:52" ht="17.399999999999999">
+    <row r="358" spans="1:52" ht="16.5">
       <c r="A358" s="1" t="s">
         <v>644</v>
       </c>
@@ -63213,7 +63213,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="359" spans="1:52" ht="17.399999999999999">
+    <row r="359" spans="1:52" ht="16.5">
       <c r="A359" s="1" t="s">
         <v>619</v>
       </c>
@@ -63365,7 +63365,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="360" spans="1:52" ht="17.399999999999999">
+    <row r="360" spans="1:52" ht="16.5">
       <c r="A360" s="1" t="s">
         <v>612</v>
       </c>
@@ -63517,7 +63517,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="361" spans="1:52" ht="17.399999999999999">
+    <row r="361" spans="1:52" ht="16.5">
       <c r="A361" s="1" t="s">
         <v>625</v>
       </c>
@@ -63669,7 +63669,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="362" spans="1:52" ht="17.399999999999999">
+    <row r="362" spans="1:52" ht="16.5">
       <c r="A362" s="1" t="s">
         <v>220</v>
       </c>
@@ -63823,7 +63823,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="363" spans="1:52" ht="17.399999999999999">
+    <row r="363" spans="1:52" ht="16.5">
       <c r="A363" s="1" t="s">
         <v>637</v>
       </c>
@@ -63977,7 +63977,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="364" spans="1:52" ht="17.399999999999999">
+    <row r="364" spans="1:52" ht="16.5">
       <c r="A364" s="1" t="s">
         <v>617</v>
       </c>
@@ -64131,7 +64131,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="365" spans="1:52" ht="17.399999999999999">
+    <row r="365" spans="1:52" ht="16.5">
       <c r="A365" s="1" t="s">
         <v>641</v>
       </c>
@@ -64285,7 +64285,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="366" spans="1:52" ht="17.399999999999999">
+    <row r="366" spans="1:52" ht="16.5">
       <c r="A366" s="1" t="s">
         <v>567</v>
       </c>
@@ -64439,7 +64439,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="367" spans="1:52" ht="17.399999999999999">
+    <row r="367" spans="1:52" ht="16.5">
       <c r="A367" s="1" t="s">
         <v>193</v>
       </c>
@@ -64591,7 +64591,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="368" spans="1:52" ht="17.399999999999999">
+    <row r="368" spans="1:52" ht="16.5">
       <c r="A368" s="1" t="s">
         <v>607</v>
       </c>
@@ -64743,7 +64743,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="369" spans="1:52" ht="17.399999999999999">
+    <row r="369" spans="1:52" ht="16.5">
       <c r="A369" s="1" t="s">
         <v>618</v>
       </c>
@@ -64897,7 +64897,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="370" spans="1:52" ht="17.399999999999999">
+    <row r="370" spans="1:52" ht="16.5">
       <c r="A370" s="1" t="s">
         <v>564</v>
       </c>
@@ -65049,7 +65049,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="371" spans="1:52" ht="17.399999999999999">
+    <row r="371" spans="1:52" ht="16.5">
       <c r="A371" s="1" t="s">
         <v>205</v>
       </c>
@@ -65203,7 +65203,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="372" spans="1:52" ht="17.399999999999999">
+    <row r="372" spans="1:52" ht="16.5">
       <c r="A372" s="1" t="s">
         <v>212</v>
       </c>
@@ -65359,7 +65359,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="373" spans="1:52" ht="17.399999999999999">
+    <row r="373" spans="1:52" ht="16.5">
       <c r="A373" s="1" t="s">
         <v>210</v>
       </c>
@@ -65511,7 +65511,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="374" spans="1:52" ht="17.399999999999999">
+    <row r="374" spans="1:52" ht="16.5">
       <c r="A374" s="1" t="s">
         <v>614</v>
       </c>
@@ -65663,7 +65663,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="375" spans="1:52" ht="17.399999999999999">
+    <row r="375" spans="1:52" ht="16.5">
       <c r="A375" s="1" t="s">
         <v>623</v>
       </c>
@@ -65817,7 +65817,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="376" spans="1:52" ht="17.399999999999999">
+    <row r="376" spans="1:52" ht="16.5">
       <c r="A376" s="1" t="s">
         <v>214</v>
       </c>
@@ -65971,7 +65971,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="377" spans="1:52" ht="17.399999999999999">
+    <row r="377" spans="1:52" ht="16.5">
       <c r="A377" s="1" t="s">
         <v>620</v>
       </c>
@@ -66123,7 +66123,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="378" spans="1:52" ht="17.399999999999999">
+    <row r="378" spans="1:52" ht="16.5">
       <c r="A378" s="1" t="s">
         <v>613</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="379" spans="1:52" ht="17.399999999999999">
+    <row r="379" spans="1:52" ht="16.5">
       <c r="A379" s="1" t="s">
         <v>621</v>
       </c>
@@ -66429,7 +66429,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="380" spans="1:52" ht="17.399999999999999">
+    <row r="380" spans="1:52" ht="16.5">
       <c r="A380" s="1" t="s">
         <v>622</v>
       </c>
@@ -66581,7 +66581,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="381" spans="1:52" ht="17.399999999999999">
+    <row r="381" spans="1:52" ht="16.5">
       <c r="A381" s="1" t="s">
         <v>642</v>
       </c>
@@ -66733,7 +66733,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="382" spans="1:52" ht="17.399999999999999">
+    <row r="382" spans="1:52" ht="16.5">
       <c r="A382" s="1" t="s">
         <v>633</v>
       </c>
@@ -66889,7 +66889,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="383" spans="1:52" ht="17.399999999999999">
+    <row r="383" spans="1:52" ht="16.5">
       <c r="A383" s="1" t="s">
         <v>658</v>
       </c>
@@ -67043,7 +67043,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="384" spans="1:52" ht="17.399999999999999">
+    <row r="384" spans="1:52" ht="16.5">
       <c r="A384" s="1" t="s">
         <v>627</v>
       </c>
@@ -67197,7 +67197,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="385" spans="1:52" ht="17.399999999999999">
+    <row r="385" spans="1:52" ht="16.5">
       <c r="A385" s="1" t="s">
         <v>630</v>
       </c>
@@ -67349,7 +67349,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="386" spans="1:52" ht="17.399999999999999">
+    <row r="386" spans="1:52" ht="16.5">
       <c r="A386" s="1" t="s">
         <v>694</v>
       </c>
@@ -67501,7 +67501,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="387" spans="1:52" ht="17.399999999999999">
+    <row r="387" spans="1:52" ht="16.5">
       <c r="A387" s="1" t="s">
         <v>675</v>
       </c>
@@ -67649,7 +67649,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="388" spans="1:52" ht="17.399999999999999">
+    <row r="388" spans="1:52" ht="16.5">
       <c r="A388" s="1" t="s">
         <v>640</v>
       </c>
@@ -67793,7 +67793,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="389" spans="1:52" ht="17.399999999999999">
+    <row r="389" spans="1:52" ht="16.5">
       <c r="A389" s="1" t="s">
         <v>600</v>
       </c>
@@ -67935,7 +67935,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="390" spans="1:52" ht="17.399999999999999">
+    <row r="390" spans="1:52" ht="16.5">
       <c r="A390" s="1" t="s">
         <v>632</v>
       </c>
@@ -68075,7 +68075,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="391" spans="1:52" ht="17.399999999999999">
+    <row r="391" spans="1:52" ht="16.5">
       <c r="A391" s="1" t="s">
         <v>616</v>
       </c>
@@ -68219,7 +68219,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="392" spans="1:52" ht="17.399999999999999">
+    <row r="392" spans="1:52" ht="16.5">
       <c r="A392" s="1" t="s">
         <v>624</v>
       </c>
@@ -68363,7 +68363,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="393" spans="1:52" ht="17.399999999999999">
+    <row r="393" spans="1:52" ht="16.5">
       <c r="A393" s="1" t="s">
         <v>661</v>
       </c>
@@ -68505,7 +68505,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="394" spans="1:52" ht="17.399999999999999">
+    <row r="394" spans="1:52" ht="16.5">
       <c r="A394" s="1" t="s">
         <v>628</v>
       </c>
@@ -68647,7 +68647,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="395" spans="1:52" ht="17.399999999999999">
+    <row r="395" spans="1:52" ht="16.5">
       <c r="A395" s="1" t="s">
         <v>609</v>
       </c>
@@ -68789,7 +68789,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="396" spans="1:52" ht="17.399999999999999">
+    <row r="396" spans="1:52" ht="16.5">
       <c r="A396" s="1" t="s">
         <v>629</v>
       </c>
@@ -68933,7 +68933,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="397" spans="1:52" ht="17.399999999999999">
+    <row r="397" spans="1:52" ht="16.5">
       <c r="A397" s="1" t="s">
         <v>615</v>
       </c>
@@ -69075,7 +69075,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="398" spans="1:52" ht="17.399999999999999">
+    <row r="398" spans="1:52" ht="16.5">
       <c r="A398" s="1" t="s">
         <v>626</v>
       </c>
@@ -69217,7 +69217,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="399" spans="1:52" ht="17.399999999999999">
+    <row r="399" spans="1:52" ht="16.5">
       <c r="A399" s="1" t="s">
         <v>659</v>
       </c>
@@ -69359,7 +69359,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="400" spans="1:52" ht="17.399999999999999">
+    <row r="400" spans="1:52" ht="16.5">
       <c r="A400" s="1" t="s">
         <v>634</v>
       </c>
@@ -69501,7 +69501,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="401" spans="1:52" ht="17.399999999999999">
+    <row r="401" spans="1:52" ht="16.5">
       <c r="A401" s="1" t="s">
         <v>643</v>
       </c>
@@ -69643,7 +69643,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="402" spans="1:52" ht="17.399999999999999">
+    <row r="402" spans="1:52" ht="16.5">
       <c r="A402" s="1" t="s">
         <v>631</v>
       </c>
@@ -69787,7 +69787,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="403" spans="1:52" ht="17.399999999999999">
+    <row r="403" spans="1:52" ht="16.5">
       <c r="A403" s="1" t="s">
         <v>665</v>
       </c>
@@ -69931,7 +69931,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="404" spans="1:52" ht="17.399999999999999">
+    <row r="404" spans="1:52" ht="16.5">
       <c r="A404" s="1" t="s">
         <v>646</v>
       </c>
@@ -70073,7 +70073,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="405" spans="1:52" ht="17.399999999999999">
+    <row r="405" spans="1:52" ht="16.5">
       <c r="A405" s="1" t="s">
         <v>649</v>
       </c>
@@ -70217,7 +70217,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="406" spans="1:52" ht="17.399999999999999">
+    <row r="406" spans="1:52" ht="16.5">
       <c r="A406" s="1" t="s">
         <v>655</v>
       </c>
@@ -70361,7 +70361,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="407" spans="1:52" ht="17.399999999999999">
+    <row r="407" spans="1:52" ht="16.5">
       <c r="A407" s="1" t="s">
         <v>608</v>
       </c>
@@ -70505,7 +70505,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="408" spans="1:52" ht="17.399999999999999">
+    <row r="408" spans="1:52" ht="16.5">
       <c r="A408" s="1" t="s">
         <v>654</v>
       </c>
